--- a/yourtour/documents/requirement/游徒APP的页面清单3.0.xlsx
+++ b/yourtour/documents/requirement/游徒APP的页面清单3.0.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="页面清单" sheetId="1" r:id="rId1"/>
     <sheet name="原型任务计划表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Table 1</t>
   </si>
@@ -540,13 +541,121 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>43</t>
+    <t>2 全文搜索页
+3 编辑精选（资讯/活动）详情
+4 游徒推荐详情
+5 大家都在玩详情</t>
+  </si>
+  <si>
+    <t>推荐首页（1）
+全文搜索页（2）
+编辑精选详情（3）
+游徒推荐详情(4)
+大家都在玩详情(5)</t>
+  </si>
+  <si>
+    <t>1~5</t>
+  </si>
+  <si>
+    <t>UI计划开始时间</t>
+  </si>
+  <si>
+    <t>目的地首页（6）
+目的地切换（7）
+目的地详情（8）</t>
+  </si>
+  <si>
+    <t>6~8</t>
+  </si>
+  <si>
+    <t>服务列表（9）
+游玩列表（10）
+行程列表（11）
+百科列表（12）
+活动列表（13）</t>
+  </si>
+  <si>
+    <t>9~13</t>
+  </si>
+  <si>
+    <t>服务详细（14）
+游玩详细（15）
+达人行程模板（16）
+百科详细（17）
+发布百科（18）
+达人详细（19）</t>
+  </si>
+  <si>
+    <t>14~19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当前行程（20）
+计划中的行程（21）
+待评价的行程（22）
+游客定制行程页(23)
+行程详细（计划中或已完成）(26)
+</t>
+  </si>
+  <si>
+    <t>写随记页(24)
+行程账单页(25)
+当前行程聊天页(27)
+行程评价页（28）</t>
+  </si>
+  <si>
+    <t>20~23、26</t>
+  </si>
+  <si>
+    <t>24、25、27、28</t>
+  </si>
+  <si>
+    <t>旅行车页（29）</t>
+  </si>
+  <si>
+    <t>个人中心首页（30）
+登录（31）
+注册（32）
+找回密码页（33）
+个人信息设置（34）</t>
+  </si>
+  <si>
+    <t>30~34</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>46、服务首页</t>
+  </si>
+  <si>
+    <t>47、预定服务列表页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48、预定服务详情页
+49、服务订购页面
+</t>
+  </si>
+  <si>
+    <t>50、服务支付页面</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">43、私信聊天室页
+</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>（44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -557,26 +666,57 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>44</t>
+      <t>45</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、某币收支页面</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>45</t>
+      <t>、某币收支页面）</t>
+    </r>
+  </si>
+  <si>
+    <t>44~45</t>
+  </si>
+  <si>
+    <t>积分收支页面（44）
+某币收支页面（45）</t>
+  </si>
+  <si>
+    <t>收藏页（35）
+关注页（36）
+私信页（37）
+足迹页（38）
+想去页（39）
+投诉页（40）
+提交投诉建议页（41）
+钱包页（42）
+私信聊天室页（43）</t>
+  </si>
+  <si>
+    <t>35~43</t>
+  </si>
+  <si>
+    <t>服务首页（46）
+预定服务列表页（47）
+预定服务详情页（48）
+服务订购页面（49）
+服务支付页面（50）</t>
+  </si>
+  <si>
+    <t>46~50</t>
+  </si>
+  <si>
+    <r>
+      <t>51</t>
     </r>
     <r>
       <rPr>
@@ -595,7 +735,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>46</t>
+      <t>52</t>
     </r>
     <r>
       <rPr>
@@ -614,7 +754,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>47</t>
+      <t>53</t>
     </r>
     <r>
       <rPr>
@@ -633,7 +773,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-49</t>
+54</t>
     </r>
     <r>
       <rPr>
@@ -645,113 +785,12 @@
       <t>、广告活动页</t>
     </r>
   </si>
-  <si>
-    <t>2 全文搜索页
-3 编辑精选（资讯/活动）详情
-4 游徒推荐详情
-5 大家都在玩详情</t>
-  </si>
-  <si>
-    <t>推荐首页（1）
-全文搜索页（2）
-编辑精选详情（3）
-游徒推荐详情(4)
-大家都在玩详情(5)</t>
-  </si>
-  <si>
-    <t>1~5</t>
-  </si>
-  <si>
-    <t>UI计划开始时间</t>
-  </si>
-  <si>
-    <t>目的地首页（6）
-目的地切换（7）
-目的地详情（8）</t>
-  </si>
-  <si>
-    <t>6~8</t>
-  </si>
-  <si>
-    <t>服务列表（9）
-游玩列表（10）
-行程列表（11）
-百科列表（12）
-活动列表（13）</t>
-  </si>
-  <si>
-    <t>9~13</t>
-  </si>
-  <si>
-    <t>服务详细（14）
-游玩详细（15）
-达人行程模板（16）
-百科详细（17）
-发布百科（18）
-达人详细（19）</t>
-  </si>
-  <si>
-    <t>14~19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当前行程（20）
-计划中的行程（21）
-待评价的行程（22）
-游客定制行程页(23)
-行程详细（计划中或已完成）(26)
-</t>
-  </si>
-  <si>
-    <t>写随记页(24)
-行程账单页(25)
-当前行程聊天页(27)
-行程评价页（28）</t>
-  </si>
-  <si>
-    <t>20~23、26</t>
-  </si>
-  <si>
-    <t>24、25、27、28</t>
-  </si>
-  <si>
-    <t>旅行车页（29）</t>
-  </si>
-  <si>
-    <t>个人中心首页（30）
-登录（31）
-注册（32）
-找回密码页（33）
-个人信息设置（34）</t>
-  </si>
-  <si>
-    <t>收藏页（35）
-关注页（36）
-私信页（37）
-足迹页（38）
-想去页（39）
-投诉页（40）
-提交投诉建议页（41）
-钱包页（42）</t>
-  </si>
-  <si>
-    <t>积分收支页面（43）
-某币收支页面（44）</t>
-  </si>
-  <si>
-    <t>43~44</t>
-  </si>
-  <si>
-    <t>35~42</t>
-  </si>
-  <si>
-    <t>30~34</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -879,6 +918,19 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -929,7 +981,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -954,16 +1006,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -975,14 +1018,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,14 +1033,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,9 +1176,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>原型任务计划表!$C$3:$C$12</c:f>
+              <c:f>原型任务计划表!$C$3:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1~5</c:v>
                 </c:pt>
@@ -1134,32 +1192,35 @@
                   <c:v>14~19</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>46~50</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>20~23、26</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>24、25、27、28</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>30~34</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>35~42</c:v>
+                <c:pt idx="9">
+                  <c:v>35~43</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>43~44</c:v>
+                <c:pt idx="10">
+                  <c:v>44~45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>原型任务计划表!$H$3:$H$12</c:f>
+              <c:f>原型任务计划表!$H$3:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -1170,10 +1231,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20</c:v>
@@ -1182,10 +1243,13 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,9 +1270,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>原型任务计划表!$C$3:$C$12</c:f>
+              <c:f>原型任务计划表!$C$3:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1~5</c:v>
                 </c:pt>
@@ -1222,32 +1286,35 @@
                   <c:v>14~19</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>46~50</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>20~23、26</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>24、25、27、28</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>30~34</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>35~42</c:v>
+                <c:pt idx="9">
+                  <c:v>35~43</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>43~44</c:v>
+                <c:pt idx="10">
+                  <c:v>44~45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>原型任务计划表!$I$3:$I$12</c:f>
+              <c:f>原型任务计划表!$I$3:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1261,10 +1328,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -1273,6 +1340,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1289,11 +1359,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-777439136"/>
-        <c:axId val="-777442944"/>
+        <c:axId val="628758176"/>
+        <c:axId val="628760896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-777439136"/>
+        <c:axId val="628758176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,7 +1406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777442944"/>
+        <c:crossAx val="628760896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1344,7 +1414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-777442944"/>
+        <c:axId val="628760896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -1397,7 +1467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777439136"/>
+        <c:crossAx val="628758176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3240,13 +3310,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3259,20 +3329,20 @@
     <col min="6" max="256" width="9.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:256" ht="15">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:256" ht="22.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3293,7 +3363,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="52.5" customHeight="1">
+    <row r="3" spans="1:256" ht="52.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -3301,7 +3371,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3310,11 +3380,11 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="87.75" customHeight="1">
+    <row r="4" spans="1:256" ht="87.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3331,7 +3401,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="94.5" customHeight="1">
+    <row r="5" spans="1:256" ht="94.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -3350,7 +3420,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="39" customHeight="1">
+    <row r="6" spans="1:256" ht="39" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3365,7 +3435,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="144">
+    <row r="7" spans="1:256" ht="144">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3376,7 +3446,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3384,24 +3454,281 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="64.349999999999994" customHeight="1">
+    <row r="8" spans="1:256" s="13" customFormat="1" ht="38.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.45" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
+      <c r="CW8" s="1"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
+      <c r="CZ8" s="1"/>
+      <c r="DA8" s="1"/>
+      <c r="DB8" s="1"/>
+      <c r="DC8" s="1"/>
+      <c r="DD8" s="1"/>
+      <c r="DE8" s="1"/>
+      <c r="DF8" s="1"/>
+      <c r="DG8" s="1"/>
+      <c r="DH8" s="1"/>
+      <c r="DI8" s="1"/>
+      <c r="DJ8" s="1"/>
+      <c r="DK8" s="1"/>
+      <c r="DL8" s="1"/>
+      <c r="DM8" s="1"/>
+      <c r="DN8" s="1"/>
+      <c r="DO8" s="1"/>
+      <c r="DP8" s="1"/>
+      <c r="DQ8" s="1"/>
+      <c r="DR8" s="1"/>
+      <c r="DS8" s="1"/>
+      <c r="DT8" s="1"/>
+      <c r="DU8" s="1"/>
+      <c r="DV8" s="1"/>
+      <c r="DW8" s="1"/>
+      <c r="DX8" s="1"/>
+      <c r="DY8" s="1"/>
+      <c r="DZ8" s="1"/>
+      <c r="EA8" s="1"/>
+      <c r="EB8" s="1"/>
+      <c r="EC8" s="1"/>
+      <c r="ED8" s="1"/>
+      <c r="EE8" s="1"/>
+      <c r="EF8" s="1"/>
+      <c r="EG8" s="1"/>
+      <c r="EH8" s="1"/>
+      <c r="EI8" s="1"/>
+      <c r="EJ8" s="1"/>
+      <c r="EK8" s="1"/>
+      <c r="EL8" s="1"/>
+      <c r="EM8" s="1"/>
+      <c r="EN8" s="1"/>
+      <c r="EO8" s="1"/>
+      <c r="EP8" s="1"/>
+      <c r="EQ8" s="1"/>
+      <c r="ER8" s="1"/>
+      <c r="ES8" s="1"/>
+      <c r="ET8" s="1"/>
+      <c r="EU8" s="1"/>
+      <c r="EV8" s="1"/>
+      <c r="EW8" s="1"/>
+      <c r="EX8" s="1"/>
+      <c r="EY8" s="1"/>
+      <c r="EZ8" s="1"/>
+      <c r="FA8" s="1"/>
+      <c r="FB8" s="1"/>
+      <c r="FC8" s="1"/>
+      <c r="FD8" s="1"/>
+      <c r="FE8" s="1"/>
+      <c r="FF8" s="1"/>
+      <c r="FG8" s="1"/>
+      <c r="FH8" s="1"/>
+      <c r="FI8" s="1"/>
+      <c r="FJ8" s="1"/>
+      <c r="FK8" s="1"/>
+      <c r="FL8" s="1"/>
+      <c r="FM8" s="1"/>
+      <c r="FN8" s="1"/>
+      <c r="FO8" s="1"/>
+      <c r="FP8" s="1"/>
+      <c r="FQ8" s="1"/>
+      <c r="FR8" s="1"/>
+      <c r="FS8" s="1"/>
+      <c r="FT8" s="1"/>
+      <c r="FU8" s="1"/>
+      <c r="FV8" s="1"/>
+      <c r="FW8" s="1"/>
+      <c r="FX8" s="1"/>
+      <c r="FY8" s="1"/>
+      <c r="FZ8" s="1"/>
+      <c r="GA8" s="1"/>
+      <c r="GB8" s="1"/>
+      <c r="GC8" s="1"/>
+      <c r="GD8" s="1"/>
+      <c r="GE8" s="1"/>
+      <c r="GF8" s="1"/>
+      <c r="GG8" s="1"/>
+      <c r="GH8" s="1"/>
+      <c r="GI8" s="1"/>
+      <c r="GJ8" s="1"/>
+      <c r="GK8" s="1"/>
+      <c r="GL8" s="1"/>
+      <c r="GM8" s="1"/>
+      <c r="GN8" s="1"/>
+      <c r="GO8" s="1"/>
+      <c r="GP8" s="1"/>
+      <c r="GQ8" s="1"/>
+      <c r="GR8" s="1"/>
+      <c r="GS8" s="1"/>
+      <c r="GT8" s="1"/>
+      <c r="GU8" s="1"/>
+      <c r="GV8" s="1"/>
+      <c r="GW8" s="1"/>
+      <c r="GX8" s="1"/>
+      <c r="GY8" s="1"/>
+      <c r="GZ8" s="1"/>
+      <c r="HA8" s="1"/>
+      <c r="HB8" s="1"/>
+      <c r="HC8" s="1"/>
+      <c r="HD8" s="1"/>
+      <c r="HE8" s="1"/>
+      <c r="HF8" s="1"/>
+      <c r="HG8" s="1"/>
+      <c r="HH8" s="1"/>
+      <c r="HI8" s="1"/>
+      <c r="HJ8" s="1"/>
+      <c r="HK8" s="1"/>
+      <c r="HL8" s="1"/>
+      <c r="HM8" s="1"/>
+      <c r="HN8" s="1"/>
+      <c r="HO8" s="1"/>
+      <c r="HP8" s="1"/>
+      <c r="HQ8" s="1"/>
+      <c r="HR8" s="1"/>
+      <c r="HS8" s="1"/>
+      <c r="HT8" s="1"/>
+      <c r="HU8" s="1"/>
+      <c r="HV8" s="1"/>
+      <c r="HW8" s="1"/>
+      <c r="HX8" s="1"/>
+      <c r="HY8" s="1"/>
+      <c r="HZ8" s="1"/>
+      <c r="IA8" s="1"/>
+      <c r="IB8" s="1"/>
+      <c r="IC8" s="1"/>
+      <c r="ID8" s="1"/>
+      <c r="IE8" s="1"/>
+      <c r="IF8" s="1"/>
+      <c r="IG8" s="1"/>
+      <c r="IH8" s="1"/>
+      <c r="II8" s="1"/>
+      <c r="IJ8" s="1"/>
+      <c r="IK8" s="1"/>
+      <c r="IL8" s="1"/>
+      <c r="IM8" s="1"/>
+      <c r="IN8" s="1"/>
+      <c r="IO8" s="1"/>
+      <c r="IP8" s="1"/>
+      <c r="IQ8" s="1"/>
+      <c r="IR8" s="1"/>
+      <c r="IS8" s="1"/>
+      <c r="IT8" s="1"/>
+      <c r="IU8" s="1"/>
+      <c r="IV8" s="1"/>
+    </row>
+    <row r="9" spans="1:256" ht="64.349999999999994" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3410,7 +3737,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="20.45" customHeight="1">
+    <row r="10" spans="1:256" ht="20.45" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3421,7 +3748,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="20.45" customHeight="1">
+    <row r="11" spans="1:256" ht="20.45" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3432,7 +3759,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="20.45" customHeight="1">
+    <row r="12" spans="1:256" ht="20.45" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3443,7 +3770,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="20.45" customHeight="1">
+    <row r="13" spans="1:256" ht="20.45" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3454,7 +3781,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="20.45" customHeight="1">
+    <row r="14" spans="1:256" ht="20.45" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3465,7 +3792,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="20.45" customHeight="1">
+    <row r="15" spans="1:256" ht="20.45" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3476,7 +3803,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="20.45" customHeight="1">
+    <row r="16" spans="1:256" ht="20.45" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3563,6 +3890,17 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.45" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3579,91 +3917,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.796875" style="6"/>
-    <col min="3" max="3" width="13.09765625" style="8" customWidth="1"/>
+    <col min="1" max="2" width="8.796875" style="17"/>
+    <col min="3" max="3" width="13.09765625" style="17" customWidth="1"/>
     <col min="4" max="4" width="23.69921875" customWidth="1"/>
-    <col min="5" max="6" width="13.796875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" style="15" customWidth="1"/>
+    <col min="5" max="6" width="13.796875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="17"/>
     <col min="10" max="10" width="8.796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="366.75" customHeight="1">
-      <c r="C1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="45">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="45">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="75">
-      <c r="A3">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="17">
         <v>3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="20">
         <f>E3/F3</f>
         <v>3</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="21">
         <v>13</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="17">
         <v>1</v>
       </c>
       <c r="J3" s="22">
@@ -3671,29 +4015,32 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="45">
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="17">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="17">
         <v>2</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G4:G12" si="0">E4/F4</f>
+      <c r="G4" s="20">
+        <f t="shared" ref="G4:G13" si="0">E4/F4</f>
         <v>1.5</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="21">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="17">
         <v>1</v>
       </c>
       <c r="J4" s="22">
@@ -3701,29 +4048,32 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="75">
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="C5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="17">
         <v>1</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="21">
         <v>15</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="17">
         <v>1</v>
       </c>
       <c r="J5" s="22">
@@ -3731,210 +4081,264 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="90">
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="17">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="17">
         <v>3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H6" s="15">
-        <v>18</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="21">
+        <v>19</v>
+      </c>
+      <c r="I6" s="17">
         <v>1</v>
       </c>
       <c r="J6" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="120">
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="6">
+    <row r="7" spans="1:11" s="13" customFormat="1" ht="75">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="17">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
-        <v>4</v>
-      </c>
-      <c r="G7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="H7" s="15">
-        <v>19</v>
-      </c>
-      <c r="I7">
+      <c r="F7" s="17">
         <v>2</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="21">
+        <v>18</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
       </c>
       <c r="J7" s="22">
         <v>23</v>
       </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="60">
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="120">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3</v>
+      </c>
+      <c r="F8" s="17">
+        <v>4</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="21">
+        <v>20</v>
+      </c>
+      <c r="I8" s="17">
+        <v>2</v>
+      </c>
+      <c r="J8" s="22">
+        <v>25</v>
+      </c>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="60">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>3</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H9" s="21">
+        <v>21</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="22">
+        <v>25</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="19">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="17">
+        <v>3</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="21">
+        <v>22</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="E11" s="17">
+        <v>3</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="21">
+        <v>22</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="135">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17">
         <v>2</v>
       </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="9">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H8" s="15">
-        <v>20</v>
-      </c>
-      <c r="I8">
+      <c r="G12" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="21">
+        <v>23</v>
+      </c>
+      <c r="I12" s="17">
+        <v>2</v>
+      </c>
+      <c r="J12" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="22">
-        <v>23</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="17">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="6">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H9" s="15">
-        <v>21</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="75">
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H10" s="15">
-        <v>21</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="22">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="120">
-      <c r="B11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="F13" s="17">
         <v>2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G13" s="20">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H11" s="15">
-        <v>22</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" s="22">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30">
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="14" t="s">
+      <c r="K13" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3956,10 +4360,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="9">
         <v>41002</v>
       </c>
       <c r="C2">
@@ -3967,15 +4371,851 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>41003</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>87</v>
+      </c>
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2" s="13">
+        <f t="shared" ref="C2:C65" si="0">A2*B2</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3" s="13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+      <c r="C4" s="13">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>92</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>83</v>
+      </c>
+      <c r="C6" s="13">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>85</v>
+      </c>
+      <c r="C7" s="13">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>86</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>85</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>87</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>82</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2.5</v>
+      </c>
+      <c r="B12">
+        <v>69</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>79</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>85</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>78</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>88</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>76</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>86</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>88</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>73</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>0.5</v>
+      </c>
+      <c r="B24">
+        <v>74</v>
+      </c>
+      <c r="C24" s="13">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>75</v>
+      </c>
+      <c r="C25" s="13">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>80</v>
+      </c>
+      <c r="C26" s="13">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>82</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>85</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2.5</v>
+      </c>
+      <c r="B29">
+        <v>84</v>
+      </c>
+      <c r="C29" s="13">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>85</v>
+      </c>
+      <c r="C30" s="13">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>86</v>
+      </c>
+      <c r="C31" s="13">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>82</v>
+      </c>
+      <c r="C32" s="13">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>75</v>
+      </c>
+      <c r="C33" s="13">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="B34">
+        <v>83</v>
+      </c>
+      <c r="C34" s="13">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>68</v>
+      </c>
+      <c r="C35" s="13">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>83</v>
+      </c>
+      <c r="C36" s="13">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>80</v>
+      </c>
+      <c r="C37" s="13">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>90</v>
+      </c>
+      <c r="C38" s="13">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>0.5</v>
+      </c>
+      <c r="B39">
+        <v>80</v>
+      </c>
+      <c r="C39" s="13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>90</v>
+      </c>
+      <c r="C40" s="13">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>75</v>
+      </c>
+      <c r="C41" s="13">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>88</v>
+      </c>
+      <c r="C42" s="13">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>0.5</v>
+      </c>
+      <c r="B43">
+        <v>77</v>
+      </c>
+      <c r="C43" s="13">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>80</v>
+      </c>
+      <c r="C44" s="13">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>86</v>
+      </c>
+      <c r="C45" s="13">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>90</v>
+      </c>
+      <c r="C46" s="13">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>86</v>
+      </c>
+      <c r="C47" s="13">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>73</v>
+      </c>
+      <c r="C48" s="13">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>86</v>
+      </c>
+      <c r="C49" s="13">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>87</v>
+      </c>
+      <c r="C50" s="13">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>81</v>
+      </c>
+      <c r="C51" s="13">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>82</v>
+      </c>
+      <c r="C52" s="13">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>78</v>
+      </c>
+      <c r="C53" s="13">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>72</v>
+      </c>
+      <c r="C54" s="13">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>77</v>
+      </c>
+      <c r="C55" s="13">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>80</v>
+      </c>
+      <c r="C56" s="13">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>85</v>
+      </c>
+      <c r="C57" s="13">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>0.5</v>
+      </c>
+      <c r="B58">
+        <v>60</v>
+      </c>
+      <c r="C58" s="13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>86</v>
+      </c>
+      <c r="C59" s="13">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>80</v>
+      </c>
+      <c r="C60" s="13">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>64</v>
+      </c>
+      <c r="C61" s="13">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>88</v>
+      </c>
+      <c r="C62" s="13">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>88</v>
+      </c>
+      <c r="C63" s="13">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>85</v>
+      </c>
+      <c r="C64" s="13">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>90</v>
+      </c>
+      <c r="C65" s="13">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>14</v>
+      </c>
+      <c r="B66">
+        <v>86</v>
+      </c>
+      <c r="C66" s="13">
+        <f t="shared" ref="C66:C67" si="1">A66*B66</f>
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>85</v>
+      </c>
+      <c r="C67" s="13">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="13">
+        <f>SUM(A1:A67)</f>
+        <v>175</v>
+      </c>
+      <c r="C68">
+        <f>SUM(C1:C67)</f>
+        <v>14266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="D70">
+        <f>C68*4/17500</f>
+        <v>3.2608000000000001</v>
+      </c>
+      <c r="E70" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/yourtour/documents/requirement/游徒APP的页面清单3.0.xlsx
+++ b/yourtour/documents/requirement/游徒APP的页面清单3.0.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Creation\产品\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="8025"/>
+    <workbookView windowWidth="16973" windowHeight="8015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="页面清单" sheetId="1" r:id="rId1"/>
     <sheet name="原型任务计划表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>Table 1</t>
   </si>
@@ -42,77 +36,19 @@
     <t>四级</t>
   </si>
   <si>
-    <t>推荐</t>
+    <t>1、推荐</t>
+  </si>
+  <si>
+    <t>1推荐首页</t>
+  </si>
+  <si>
+    <t>2 全文搜索页
+3 编辑精选（资讯/活动）详情
+4 游徒推荐详情
+5 大家都在玩详情</t>
   </si>
   <si>
     <t>目的地</t>
-  </si>
-  <si>
-    <t>行程</t>
-  </si>
-  <si>
-    <t>旅行车</t>
-  </si>
-  <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>任务</t>
-  </si>
-  <si>
-    <t>工期</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>复杂度</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>评价的指标待确定</t>
-  </si>
-  <si>
-    <t>积分策略待确定</t>
-  </si>
-  <si>
-    <t>renwu1</t>
-  </si>
-  <si>
-    <t>renwu2</t>
-  </si>
-  <si>
-    <t>计划日期</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">优先级/复杂度
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>（先做优先级高复杂度低的）</t>
-    </r>
-  </si>
-  <si>
-    <t>1、推荐</t>
-  </si>
-  <si>
-    <t>1推荐首页</t>
   </si>
   <si>
     <t>6 目的地首页（一屏概览）
@@ -137,7 +73,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -160,7 +95,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -169,6 +103,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -177,7 +117,6 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">4  服务详细
 15  游玩详细
@@ -189,7 +128,6 @@
         <color theme="1"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>16  达人行程模板</t>
     </r>
@@ -199,7 +137,6 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 17 百科详细
@@ -211,7 +148,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -229,7 +165,16 @@
     </r>
   </si>
   <si>
+    <t>行程</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>20</t>
     </r>
     <r>
@@ -237,7 +182,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、当前行程
@@ -248,7 +192,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>21</t>
     </r>
@@ -257,7 +201,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、计划中的行程
@@ -268,7 +211,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>22</t>
     </r>
@@ -277,23 +220,19 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、待评价的行程</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>23</t>
     </r>
     <r>
@@ -301,7 +240,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、游客定制行程页
@@ -312,7 +250,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>24</t>
     </r>
@@ -321,7 +259,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、写随记页
@@ -332,7 +269,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>25</t>
     </r>
@@ -341,7 +278,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、行程账单页
@@ -352,7 +288,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>26</t>
     </r>
@@ -361,7 +297,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、行程详细（计划中或已完成）
@@ -372,7 +307,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>27</t>
     </r>
@@ -381,7 +316,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、当前行程聊天页</t>
@@ -389,6 +323,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>28</t>
     </r>
     <r>
@@ -402,7 +342,16 @@
     </r>
   </si>
   <si>
+    <t>旅行车</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>29</t>
     </r>
     <r>
@@ -410,14 +359,22 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、旅行车页</t>
     </r>
   </si>
   <si>
+    <t>个人中心</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>30</t>
     </r>
     <r>
@@ -425,7 +382,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、个人中心首页（测滑抽屉式）</t>
@@ -433,6 +389,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">31、登录页
 </t>
     </r>
@@ -441,7 +403,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>32</t>
@@ -480,7 +441,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>34</t>
@@ -500,7 +460,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>35</t>
@@ -541,123 +500,30 @@
     </r>
   </si>
   <si>
-    <t>2 全文搜索页
-3 编辑精选（资讯/活动）详情
-4 游徒推荐详情
-5 大家都在玩详情</t>
-  </si>
-  <si>
-    <t>推荐首页（1）
-全文搜索页（2）
-编辑精选详情（3）
-游徒推荐详情(4)
-大家都在玩详情(5)</t>
-  </si>
-  <si>
-    <t>1~5</t>
-  </si>
-  <si>
-    <t>UI计划开始时间</t>
-  </si>
-  <si>
-    <t>目的地首页（6）
-目的地切换（7）
-目的地详情（8）</t>
-  </si>
-  <si>
-    <t>6~8</t>
-  </si>
-  <si>
-    <t>服务列表（9）
-游玩列表（10）
-行程列表（11）
-百科列表（12）
-活动列表（13）</t>
-  </si>
-  <si>
-    <t>9~13</t>
-  </si>
-  <si>
-    <t>服务详细（14）
-游玩详细（15）
-达人行程模板（16）
-百科详细（17）
-发布百科（18）
-达人详细（19）</t>
-  </si>
-  <si>
-    <t>14~19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当前行程（20）
-计划中的行程（21）
-待评价的行程（22）
-游客定制行程页(23)
-行程详细（计划中或已完成）(26)
-</t>
-  </si>
-  <si>
-    <t>写随记页(24)
-行程账单页(25)
-当前行程聊天页(27)
-行程评价页（28）</t>
-  </si>
-  <si>
-    <t>20~23、26</t>
-  </si>
-  <si>
-    <t>24、25、27、28</t>
-  </si>
-  <si>
-    <t>旅行车页（29）</t>
-  </si>
-  <si>
-    <t>个人中心首页（30）
-登录（31）
-注册（32）
-找回密码页（33）
-个人信息设置（34）</t>
-  </si>
-  <si>
-    <t>30~34</t>
-  </si>
-  <si>
-    <t>服务</t>
-  </si>
-  <si>
-    <t>46、服务首页</t>
-  </si>
-  <si>
-    <t>47、预定服务列表页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48、预定服务详情页
-49、服务订购页面
-</t>
-  </si>
-  <si>
-    <t>50、服务支付页面</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">43、私信聊天室页
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>（44</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、积分收支页面
@@ -666,56 +532,50 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>45</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、某币收支页面）</t>
     </r>
   </si>
   <si>
-    <t>44~45</t>
-  </si>
-  <si>
-    <t>积分收支页面（44）
-某币收支页面（45）</t>
-  </si>
-  <si>
-    <t>收藏页（35）
-关注页（36）
-私信页（37）
-足迹页（38）
-想去页（39）
-投诉页（40）
-提交投诉建议页（41）
-钱包页（42）
-私信聊天室页（43）</t>
-  </si>
-  <si>
-    <t>35~43</t>
-  </si>
-  <si>
-    <t>服务首页（46）
-预定服务列表页（47）
-预定服务详情页（48）
-服务订购页面（49）
-服务支付页面（50）</t>
-  </si>
-  <si>
-    <t>46~50</t>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>46、服务首页</t>
+  </si>
+  <si>
+    <t>47、预定服务列表页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48、预定服务详情页
+49、服务订购页面
+</t>
+  </si>
+  <si>
+    <t>50、服务支付页面</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>51</t>
     </r>
     <r>
@@ -733,7 +593,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>52</t>
     </r>
@@ -752,7 +612,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>53</t>
     </r>
@@ -770,7 +630,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 54</t>
@@ -785,12 +645,175 @@
       <t>、广告活动页</t>
     </r>
   </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>复杂度</t>
+  </si>
+  <si>
+    <t>优先级/复杂度</t>
+  </si>
+  <si>
+    <t>计划日期</t>
+  </si>
+  <si>
+    <t>工期</t>
+  </si>
+  <si>
+    <t>UI计划开始时间</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>推荐</t>
+  </si>
+  <si>
+    <t>1~5</t>
+  </si>
+  <si>
+    <t>推荐首页（1）
+全文搜索页（2）
+编辑精选详情（3）
+游徒推荐详情(4)
+大家都在玩详情(5)</t>
+  </si>
+  <si>
+    <t>6~8</t>
+  </si>
+  <si>
+    <t>目的地首页（6）
+目的地切换（7）
+目的地详情（8）</t>
+  </si>
+  <si>
+    <t>9~13</t>
+  </si>
+  <si>
+    <t>服务列表（9）
+游玩列表（10）
+行程列表（11）
+百科列表（12）
+活动列表（13）</t>
+  </si>
+  <si>
+    <t>14~19</t>
+  </si>
+  <si>
+    <t>服务详细（14）
+游玩详细（15）
+达人行程模板（16）
+百科详细（17）
+发布百科（18）
+达人详细（19）</t>
+  </si>
+  <si>
+    <t>46~50</t>
+  </si>
+  <si>
+    <t>服务首页（46）
+预定服务列表页（47）
+预定服务详情页（48）
+服务订购页面（49）
+服务支付页面（50）</t>
+  </si>
+  <si>
+    <t>20~23、26</t>
+  </si>
+  <si>
+    <t>当前行程（20）
+计划中的行程（21）
+待评价的行程（22）
+游客定制行程页(23)
+行程详细（计划中或已完成）(26)</t>
+  </si>
+  <si>
+    <t>24、25、27、28</t>
+  </si>
+  <si>
+    <t>写随记页(24)
+行程账单页(25)
+当前行程聊天页(27)
+行程评价页（28）</t>
+  </si>
+  <si>
+    <t>评价的指标待确定</t>
+  </si>
+  <si>
+    <t>旅行车页（29）</t>
+  </si>
+  <si>
+    <t>30~34</t>
+  </si>
+  <si>
+    <t>个人中心首页（30）
+登录（31）
+注册（32）
+找回密码页（33）
+个人信息设置（34）</t>
+  </si>
+  <si>
+    <t>35~43</t>
+  </si>
+  <si>
+    <t>收藏页（35）
+关注页（36）
+私信页（37）
+足迹页（38）
+想去页（39）
+投诉页（40）
+提交投诉建议页（41）
+钱包页（42）
+私信聊天室页（43）</t>
+  </si>
+  <si>
+    <t>44~45</t>
+  </si>
+  <si>
+    <t>积分收支页面（44）
+某币收支页面（45）</t>
+  </si>
+  <si>
+    <t>积分策略待确定</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -800,25 +823,231 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -835,104 +1064,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="0" tint="-0.349986266670736"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="6"/>
+      <color theme="0" tint="-0.349986266670736"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,8 +1095,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -975,93 +1305,367 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1131,14 +1735,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1156,9 +1752,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.192874607055536"/>
+          <c:y val="0.036697247706422"/>
+          <c:w val="0.779997671440214"/>
+          <c:h val="0.875963302752294"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -1176,7 +1782,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>原型任务计划表!$C$3:$C$13</c:f>
+              <c:f>原型任务计划表!$C$2:$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1217,38 +1823,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>原型任务计划表!$H$3:$H$13</c:f>
+              <c:f>原型任务计划表!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="General">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="General">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="General">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="General">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="General">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="General">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="General">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="General">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="General">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="General">
                   <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
@@ -1270,7 +1876,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>原型任务计划表!$C$3:$C$13</c:f>
+              <c:f>原型任务计划表!$C$2:$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1311,38 +1917,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>原型任务计划表!$I$3:$I$13</c:f>
+              <c:f>原型任务计划表!$I$2:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="General">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="General">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1350,6 +1956,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1387,7 +1994,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1403,7 +2010,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628760896"/>
@@ -1411,6 +2017,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1424,6 +2031,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1448,7 +2056,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1464,7 +2072,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628758176"/>
@@ -1500,18 +2107,17 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2063,28 +2669,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>388620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>4119562</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>247967</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5574030" y="904875"/>
+        <a:ext cx="5455920" cy="3185795"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3306,609 +3912,609 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" style="1" customWidth="1"/>
-    <col min="6" max="256" width="9.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.4" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.8" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.8" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.8" style="12" customWidth="1"/>
+    <col min="6" max="256" width="9.1" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="15">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="13.55" spans="1:9">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:256" ht="52.5" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" ht="52.5" customHeight="1" spans="1:9">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" ht="87.75" customHeight="1" spans="1:9">
+      <c r="A4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" ht="94.5" customHeight="1" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" ht="168" spans="1:9">
+      <c r="A7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" customFormat="1" ht="32.65" spans="1:256">
+      <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:256" ht="87.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="12"/>
+      <c r="BQ8" s="12"/>
+      <c r="BR8" s="12"/>
+      <c r="BS8" s="12"/>
+      <c r="BT8" s="12"/>
+      <c r="BU8" s="12"/>
+      <c r="BV8" s="12"/>
+      <c r="BW8" s="12"/>
+      <c r="BX8" s="12"/>
+      <c r="BY8" s="12"/>
+      <c r="BZ8" s="12"/>
+      <c r="CA8" s="12"/>
+      <c r="CB8" s="12"/>
+      <c r="CC8" s="12"/>
+      <c r="CD8" s="12"/>
+      <c r="CE8" s="12"/>
+      <c r="CF8" s="12"/>
+      <c r="CG8" s="12"/>
+      <c r="CH8" s="12"/>
+      <c r="CI8" s="12"/>
+      <c r="CJ8" s="12"/>
+      <c r="CK8" s="12"/>
+      <c r="CL8" s="12"/>
+      <c r="CM8" s="12"/>
+      <c r="CN8" s="12"/>
+      <c r="CO8" s="12"/>
+      <c r="CP8" s="12"/>
+      <c r="CQ8" s="12"/>
+      <c r="CR8" s="12"/>
+      <c r="CS8" s="12"/>
+      <c r="CT8" s="12"/>
+      <c r="CU8" s="12"/>
+      <c r="CV8" s="12"/>
+      <c r="CW8" s="12"/>
+      <c r="CX8" s="12"/>
+      <c r="CY8" s="12"/>
+      <c r="CZ8" s="12"/>
+      <c r="DA8" s="12"/>
+      <c r="DB8" s="12"/>
+      <c r="DC8" s="12"/>
+      <c r="DD8" s="12"/>
+      <c r="DE8" s="12"/>
+      <c r="DF8" s="12"/>
+      <c r="DG8" s="12"/>
+      <c r="DH8" s="12"/>
+      <c r="DI8" s="12"/>
+      <c r="DJ8" s="12"/>
+      <c r="DK8" s="12"/>
+      <c r="DL8" s="12"/>
+      <c r="DM8" s="12"/>
+      <c r="DN8" s="12"/>
+      <c r="DO8" s="12"/>
+      <c r="DP8" s="12"/>
+      <c r="DQ8" s="12"/>
+      <c r="DR8" s="12"/>
+      <c r="DS8" s="12"/>
+      <c r="DT8" s="12"/>
+      <c r="DU8" s="12"/>
+      <c r="DV8" s="12"/>
+      <c r="DW8" s="12"/>
+      <c r="DX8" s="12"/>
+      <c r="DY8" s="12"/>
+      <c r="DZ8" s="12"/>
+      <c r="EA8" s="12"/>
+      <c r="EB8" s="12"/>
+      <c r="EC8" s="12"/>
+      <c r="ED8" s="12"/>
+      <c r="EE8" s="12"/>
+      <c r="EF8" s="12"/>
+      <c r="EG8" s="12"/>
+      <c r="EH8" s="12"/>
+      <c r="EI8" s="12"/>
+      <c r="EJ8" s="12"/>
+      <c r="EK8" s="12"/>
+      <c r="EL8" s="12"/>
+      <c r="EM8" s="12"/>
+      <c r="EN8" s="12"/>
+      <c r="EO8" s="12"/>
+      <c r="EP8" s="12"/>
+      <c r="EQ8" s="12"/>
+      <c r="ER8" s="12"/>
+      <c r="ES8" s="12"/>
+      <c r="ET8" s="12"/>
+      <c r="EU8" s="12"/>
+      <c r="EV8" s="12"/>
+      <c r="EW8" s="12"/>
+      <c r="EX8" s="12"/>
+      <c r="EY8" s="12"/>
+      <c r="EZ8" s="12"/>
+      <c r="FA8" s="12"/>
+      <c r="FB8" s="12"/>
+      <c r="FC8" s="12"/>
+      <c r="FD8" s="12"/>
+      <c r="FE8" s="12"/>
+      <c r="FF8" s="12"/>
+      <c r="FG8" s="12"/>
+      <c r="FH8" s="12"/>
+      <c r="FI8" s="12"/>
+      <c r="FJ8" s="12"/>
+      <c r="FK8" s="12"/>
+      <c r="FL8" s="12"/>
+      <c r="FM8" s="12"/>
+      <c r="FN8" s="12"/>
+      <c r="FO8" s="12"/>
+      <c r="FP8" s="12"/>
+      <c r="FQ8" s="12"/>
+      <c r="FR8" s="12"/>
+      <c r="FS8" s="12"/>
+      <c r="FT8" s="12"/>
+      <c r="FU8" s="12"/>
+      <c r="FV8" s="12"/>
+      <c r="FW8" s="12"/>
+      <c r="FX8" s="12"/>
+      <c r="FY8" s="12"/>
+      <c r="FZ8" s="12"/>
+      <c r="GA8" s="12"/>
+      <c r="GB8" s="12"/>
+      <c r="GC8" s="12"/>
+      <c r="GD8" s="12"/>
+      <c r="GE8" s="12"/>
+      <c r="GF8" s="12"/>
+      <c r="GG8" s="12"/>
+      <c r="GH8" s="12"/>
+      <c r="GI8" s="12"/>
+      <c r="GJ8" s="12"/>
+      <c r="GK8" s="12"/>
+      <c r="GL8" s="12"/>
+      <c r="GM8" s="12"/>
+      <c r="GN8" s="12"/>
+      <c r="GO8" s="12"/>
+      <c r="GP8" s="12"/>
+      <c r="GQ8" s="12"/>
+      <c r="GR8" s="12"/>
+      <c r="GS8" s="12"/>
+      <c r="GT8" s="12"/>
+      <c r="GU8" s="12"/>
+      <c r="GV8" s="12"/>
+      <c r="GW8" s="12"/>
+      <c r="GX8" s="12"/>
+      <c r="GY8" s="12"/>
+      <c r="GZ8" s="12"/>
+      <c r="HA8" s="12"/>
+      <c r="HB8" s="12"/>
+      <c r="HC8" s="12"/>
+      <c r="HD8" s="12"/>
+      <c r="HE8" s="12"/>
+      <c r="HF8" s="12"/>
+      <c r="HG8" s="12"/>
+      <c r="HH8" s="12"/>
+      <c r="HI8" s="12"/>
+      <c r="HJ8" s="12"/>
+      <c r="HK8" s="12"/>
+      <c r="HL8" s="12"/>
+      <c r="HM8" s="12"/>
+      <c r="HN8" s="12"/>
+      <c r="HO8" s="12"/>
+      <c r="HP8" s="12"/>
+      <c r="HQ8" s="12"/>
+      <c r="HR8" s="12"/>
+      <c r="HS8" s="12"/>
+      <c r="HT8" s="12"/>
+      <c r="HU8" s="12"/>
+      <c r="HV8" s="12"/>
+      <c r="HW8" s="12"/>
+      <c r="HX8" s="12"/>
+      <c r="HY8" s="12"/>
+      <c r="HZ8" s="12"/>
+      <c r="IA8" s="12"/>
+      <c r="IB8" s="12"/>
+      <c r="IC8" s="12"/>
+      <c r="ID8" s="12"/>
+      <c r="IE8" s="12"/>
+      <c r="IF8" s="12"/>
+      <c r="IG8" s="12"/>
+      <c r="IH8" s="12"/>
+      <c r="II8" s="12"/>
+      <c r="IJ8" s="12"/>
+      <c r="IK8" s="12"/>
+      <c r="IL8" s="12"/>
+      <c r="IM8" s="12"/>
+      <c r="IN8" s="12"/>
+      <c r="IO8" s="12"/>
+      <c r="IP8" s="12"/>
+      <c r="IQ8" s="12"/>
+      <c r="IR8" s="12"/>
+      <c r="IS8" s="12"/>
+      <c r="IT8" s="12"/>
+      <c r="IU8" s="12"/>
+      <c r="IV8" s="12"/>
+    </row>
+    <row r="9" ht="64.35" customHeight="1" spans="1:9">
+      <c r="A9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:256" ht="94.5" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:256" ht="39" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:256" ht="144">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:256" s="13" customFormat="1" ht="38.25">
-      <c r="A8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-      <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
-      <c r="BK8" s="1"/>
-      <c r="BL8" s="1"/>
-      <c r="BM8" s="1"/>
-      <c r="BN8" s="1"/>
-      <c r="BO8" s="1"/>
-      <c r="BP8" s="1"/>
-      <c r="BQ8" s="1"/>
-      <c r="BR8" s="1"/>
-      <c r="BS8" s="1"/>
-      <c r="BT8" s="1"/>
-      <c r="BU8" s="1"/>
-      <c r="BV8" s="1"/>
-      <c r="BW8" s="1"/>
-      <c r="BX8" s="1"/>
-      <c r="BY8" s="1"/>
-      <c r="BZ8" s="1"/>
-      <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
-      <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
-      <c r="CF8" s="1"/>
-      <c r="CG8" s="1"/>
-      <c r="CH8" s="1"/>
-      <c r="CI8" s="1"/>
-      <c r="CJ8" s="1"/>
-      <c r="CK8" s="1"/>
-      <c r="CL8" s="1"/>
-      <c r="CM8" s="1"/>
-      <c r="CN8" s="1"/>
-      <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
-      <c r="CR8" s="1"/>
-      <c r="CS8" s="1"/>
-      <c r="CT8" s="1"/>
-      <c r="CU8" s="1"/>
-      <c r="CV8" s="1"/>
-      <c r="CW8" s="1"/>
-      <c r="CX8" s="1"/>
-      <c r="CY8" s="1"/>
-      <c r="CZ8" s="1"/>
-      <c r="DA8" s="1"/>
-      <c r="DB8" s="1"/>
-      <c r="DC8" s="1"/>
-      <c r="DD8" s="1"/>
-      <c r="DE8" s="1"/>
-      <c r="DF8" s="1"/>
-      <c r="DG8" s="1"/>
-      <c r="DH8" s="1"/>
-      <c r="DI8" s="1"/>
-      <c r="DJ8" s="1"/>
-      <c r="DK8" s="1"/>
-      <c r="DL8" s="1"/>
-      <c r="DM8" s="1"/>
-      <c r="DN8" s="1"/>
-      <c r="DO8" s="1"/>
-      <c r="DP8" s="1"/>
-      <c r="DQ8" s="1"/>
-      <c r="DR8" s="1"/>
-      <c r="DS8" s="1"/>
-      <c r="DT8" s="1"/>
-      <c r="DU8" s="1"/>
-      <c r="DV8" s="1"/>
-      <c r="DW8" s="1"/>
-      <c r="DX8" s="1"/>
-      <c r="DY8" s="1"/>
-      <c r="DZ8" s="1"/>
-      <c r="EA8" s="1"/>
-      <c r="EB8" s="1"/>
-      <c r="EC8" s="1"/>
-      <c r="ED8" s="1"/>
-      <c r="EE8" s="1"/>
-      <c r="EF8" s="1"/>
-      <c r="EG8" s="1"/>
-      <c r="EH8" s="1"/>
-      <c r="EI8" s="1"/>
-      <c r="EJ8" s="1"/>
-      <c r="EK8" s="1"/>
-      <c r="EL8" s="1"/>
-      <c r="EM8" s="1"/>
-      <c r="EN8" s="1"/>
-      <c r="EO8" s="1"/>
-      <c r="EP8" s="1"/>
-      <c r="EQ8" s="1"/>
-      <c r="ER8" s="1"/>
-      <c r="ES8" s="1"/>
-      <c r="ET8" s="1"/>
-      <c r="EU8" s="1"/>
-      <c r="EV8" s="1"/>
-      <c r="EW8" s="1"/>
-      <c r="EX8" s="1"/>
-      <c r="EY8" s="1"/>
-      <c r="EZ8" s="1"/>
-      <c r="FA8" s="1"/>
-      <c r="FB8" s="1"/>
-      <c r="FC8" s="1"/>
-      <c r="FD8" s="1"/>
-      <c r="FE8" s="1"/>
-      <c r="FF8" s="1"/>
-      <c r="FG8" s="1"/>
-      <c r="FH8" s="1"/>
-      <c r="FI8" s="1"/>
-      <c r="FJ8" s="1"/>
-      <c r="FK8" s="1"/>
-      <c r="FL8" s="1"/>
-      <c r="FM8" s="1"/>
-      <c r="FN8" s="1"/>
-      <c r="FO8" s="1"/>
-      <c r="FP8" s="1"/>
-      <c r="FQ8" s="1"/>
-      <c r="FR8" s="1"/>
-      <c r="FS8" s="1"/>
-      <c r="FT8" s="1"/>
-      <c r="FU8" s="1"/>
-      <c r="FV8" s="1"/>
-      <c r="FW8" s="1"/>
-      <c r="FX8" s="1"/>
-      <c r="FY8" s="1"/>
-      <c r="FZ8" s="1"/>
-      <c r="GA8" s="1"/>
-      <c r="GB8" s="1"/>
-      <c r="GC8" s="1"/>
-      <c r="GD8" s="1"/>
-      <c r="GE8" s="1"/>
-      <c r="GF8" s="1"/>
-      <c r="GG8" s="1"/>
-      <c r="GH8" s="1"/>
-      <c r="GI8" s="1"/>
-      <c r="GJ8" s="1"/>
-      <c r="GK8" s="1"/>
-      <c r="GL8" s="1"/>
-      <c r="GM8" s="1"/>
-      <c r="GN8" s="1"/>
-      <c r="GO8" s="1"/>
-      <c r="GP8" s="1"/>
-      <c r="GQ8" s="1"/>
-      <c r="GR8" s="1"/>
-      <c r="GS8" s="1"/>
-      <c r="GT8" s="1"/>
-      <c r="GU8" s="1"/>
-      <c r="GV8" s="1"/>
-      <c r="GW8" s="1"/>
-      <c r="GX8" s="1"/>
-      <c r="GY8" s="1"/>
-      <c r="GZ8" s="1"/>
-      <c r="HA8" s="1"/>
-      <c r="HB8" s="1"/>
-      <c r="HC8" s="1"/>
-      <c r="HD8" s="1"/>
-      <c r="HE8" s="1"/>
-      <c r="HF8" s="1"/>
-      <c r="HG8" s="1"/>
-      <c r="HH8" s="1"/>
-      <c r="HI8" s="1"/>
-      <c r="HJ8" s="1"/>
-      <c r="HK8" s="1"/>
-      <c r="HL8" s="1"/>
-      <c r="HM8" s="1"/>
-      <c r="HN8" s="1"/>
-      <c r="HO8" s="1"/>
-      <c r="HP8" s="1"/>
-      <c r="HQ8" s="1"/>
-      <c r="HR8" s="1"/>
-      <c r="HS8" s="1"/>
-      <c r="HT8" s="1"/>
-      <c r="HU8" s="1"/>
-      <c r="HV8" s="1"/>
-      <c r="HW8" s="1"/>
-      <c r="HX8" s="1"/>
-      <c r="HY8" s="1"/>
-      <c r="HZ8" s="1"/>
-      <c r="IA8" s="1"/>
-      <c r="IB8" s="1"/>
-      <c r="IC8" s="1"/>
-      <c r="ID8" s="1"/>
-      <c r="IE8" s="1"/>
-      <c r="IF8" s="1"/>
-      <c r="IG8" s="1"/>
-      <c r="IH8" s="1"/>
-      <c r="II8" s="1"/>
-      <c r="IJ8" s="1"/>
-      <c r="IK8" s="1"/>
-      <c r="IL8" s="1"/>
-      <c r="IM8" s="1"/>
-      <c r="IN8" s="1"/>
-      <c r="IO8" s="1"/>
-      <c r="IP8" s="1"/>
-      <c r="IQ8" s="1"/>
-      <c r="IR8" s="1"/>
-      <c r="IS8" s="1"/>
-      <c r="IT8" s="1"/>
-      <c r="IU8" s="1"/>
-      <c r="IV8" s="1"/>
-    </row>
-    <row r="9" spans="1:256" ht="64.349999999999994" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:256" ht="20.45" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:256" ht="20.45" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:256" ht="20.45" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:256" ht="20.45" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:256" ht="20.45" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:256" ht="20.45" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:256" ht="20.45" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.45" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.45" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.45" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.45" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.45" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.45" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.45" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.45" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3916,485 +4522,445 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="17"/>
-    <col min="3" max="3" width="13.09765625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="23.69921875" customWidth="1"/>
-    <col min="5" max="6" width="13.796875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="17"/>
-    <col min="10" max="10" width="8.796875" style="22"/>
+    <col min="1" max="1" width="5.05833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.8" style="2"/>
+    <col min="3" max="3" width="6.08333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.2083333333333" customWidth="1"/>
+    <col min="5" max="6" width="9.29166666666667" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.29166666666667" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.0166666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5.69166666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.8" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="366.75" customHeight="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="45">
-      <c r="A2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="1" s="1" customFormat="1" ht="40.65" spans="1:11">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" ht="54.65" spans="1:10">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <f>E2/F2</f>
+        <v>3</v>
+      </c>
+      <c r="H2" s="4">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
         <v>15</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="23" t="s">
+    </row>
+    <row r="3" ht="32.65" spans="1:10">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G12" si="0">E3/F3</f>
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="54.65" spans="1:10">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="65.35" spans="1:10">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="54.65" spans="1:10">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
         <v>23</v>
       </c>
-      <c r="H2" s="18" t="s">
+    </row>
+    <row r="7" ht="54.65" spans="1:11">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="4">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>25</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" ht="54.65" spans="1:11">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H8" s="4">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>25</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" ht="14" spans="1:10">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7">
+        <v>29</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
         <v>22</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="75">
-      <c r="A3" s="17">
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="J9" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="54.65" spans="1:10">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="20">
-        <f>E3/F3</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H3" s="21">
-        <v>13</v>
-      </c>
-      <c r="I3" s="17">
+      <c r="H10" s="4">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="45">
-      <c r="A4" s="17">
+      <c r="J10" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="98" spans="1:10">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="17">
-        <v>3</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="20">
-        <f t="shared" ref="G4:G13" si="0">E4/F4</f>
-        <v>1.5</v>
-      </c>
-      <c r="H4" s="21">
-        <v>14</v>
-      </c>
-      <c r="I4" s="17">
+      <c r="J11" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="27.35" spans="1:11">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="75">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="21">
-        <v>15</v>
-      </c>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="J5" s="22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="90">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="17">
-        <v>3</v>
-      </c>
-      <c r="F6" s="17">
-        <v>3</v>
-      </c>
-      <c r="G6" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="21">
-        <v>19</v>
-      </c>
-      <c r="I6" s="17">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="13" customFormat="1" ht="75">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="17">
-        <v>3</v>
-      </c>
-      <c r="F7" s="17">
-        <v>2</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H7" s="21">
-        <v>18</v>
-      </c>
-      <c r="I7" s="17">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="120">
-      <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="17">
-        <v>3</v>
-      </c>
-      <c r="F8" s="17">
-        <v>4</v>
-      </c>
-      <c r="G8" s="20">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="H8" s="21">
-        <v>20</v>
-      </c>
-      <c r="I8" s="17">
-        <v>2</v>
-      </c>
-      <c r="J8" s="22">
-        <v>25</v>
-      </c>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="60">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2</v>
-      </c>
-      <c r="F9" s="17">
-        <v>3</v>
-      </c>
-      <c r="G9" s="20">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H9" s="21">
-        <v>21</v>
-      </c>
-      <c r="I9" s="17">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22">
-        <v>25</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="17">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="19">
-        <v>29</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="17">
-        <v>3</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H10" s="21">
-        <v>22</v>
-      </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="J10" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="75">
-      <c r="A11" s="17">
-        <v>9</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="17">
-        <v>3</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H11" s="21">
-        <v>22</v>
-      </c>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
-      <c r="J11" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="135">
-      <c r="A12" s="17">
-        <v>10</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17">
-        <v>2</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="21">
-        <v>23</v>
-      </c>
-      <c r="I12" s="17">
-        <v>2</v>
-      </c>
-      <c r="J12" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30">
-      <c r="A13" s="17">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="17">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17">
-        <v>2</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="9">
-        <v>41002</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9">
-        <v>41003</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
-  <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -4415,7 +4981,7 @@
       <c r="B2">
         <v>80</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2">
         <f t="shared" ref="C2:C65" si="0">A2*B2</f>
         <v>80</v>
       </c>
@@ -4427,7 +4993,7 @@
       <c r="B3">
         <v>80</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -4439,7 +5005,7 @@
       <c r="B4">
         <v>67</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
@@ -4451,7 +5017,7 @@
       <c r="B5">
         <v>92</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
@@ -4463,7 +5029,7 @@
       <c r="B6">
         <v>83</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
@@ -4475,7 +5041,7 @@
       <c r="B7">
         <v>85</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
@@ -4487,7 +5053,7 @@
       <c r="B8">
         <v>86</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>172</v>
       </c>
@@ -4499,7 +5065,7 @@
       <c r="B9">
         <v>85</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -4511,7 +5077,7 @@
       <c r="B10">
         <v>87</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
@@ -4523,7 +5089,7 @@
       <c r="B11">
         <v>82</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
@@ -4535,7 +5101,7 @@
       <c r="B12">
         <v>69</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>172.5</v>
       </c>
@@ -4547,7 +5113,7 @@
       <c r="B13">
         <v>79</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
@@ -4559,7 +5125,7 @@
       <c r="B14">
         <v>85</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -4571,7 +5137,7 @@
       <c r="B15">
         <v>85</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
@@ -4583,7 +5149,7 @@
       <c r="B16">
         <v>78</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
@@ -4595,7 +5161,7 @@
       <c r="B17">
         <v>88</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
@@ -4607,7 +5173,7 @@
       <c r="B18">
         <v>80</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
@@ -4619,7 +5185,7 @@
       <c r="B19">
         <v>76</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
@@ -4631,7 +5197,7 @@
       <c r="B20">
         <v>86</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
@@ -4643,7 +5209,7 @@
       <c r="B21">
         <v>88</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
@@ -4655,7 +5221,7 @@
       <c r="B22">
         <v>73</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
@@ -4667,7 +5233,7 @@
       <c r="B23">
         <v>60</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
@@ -4679,7 +5245,7 @@
       <c r="B24">
         <v>74</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -4691,7 +5257,7 @@
       <c r="B25">
         <v>75</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -4703,7 +5269,7 @@
       <c r="B26">
         <v>80</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
@@ -4715,7 +5281,7 @@
       <c r="B27">
         <v>82</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
@@ -4727,7 +5293,7 @@
       <c r="B28">
         <v>85</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
@@ -4739,7 +5305,7 @@
       <c r="B29">
         <v>84</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
@@ -4751,7 +5317,7 @@
       <c r="B30">
         <v>85</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -4763,7 +5329,7 @@
       <c r="B31">
         <v>86</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31">
         <f t="shared" si="0"/>
         <v>172</v>
       </c>
@@ -4775,7 +5341,7 @@
       <c r="B32">
         <v>82</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
@@ -4787,19 +5353,19 @@
       <c r="B33">
         <v>75</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="13">
+      <c r="A34">
         <v>0.5</v>
       </c>
       <c r="B34">
         <v>83</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34">
         <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
@@ -4811,7 +5377,7 @@
       <c r="B35">
         <v>68</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
@@ -4823,7 +5389,7 @@
       <c r="B36">
         <v>83</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
@@ -4835,7 +5401,7 @@
       <c r="B37">
         <v>80</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
@@ -4847,7 +5413,7 @@
       <c r="B38">
         <v>90</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
@@ -4859,7 +5425,7 @@
       <c r="B39">
         <v>80</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -4871,7 +5437,7 @@
       <c r="B40">
         <v>90</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
@@ -4883,7 +5449,7 @@
       <c r="B41">
         <v>75</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -4895,7 +5461,7 @@
       <c r="B42">
         <v>88</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
@@ -4907,7 +5473,7 @@
       <c r="B43">
         <v>77</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43">
         <f t="shared" si="0"/>
         <v>38.5</v>
       </c>
@@ -4919,7 +5485,7 @@
       <c r="B44">
         <v>80</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
@@ -4931,7 +5497,7 @@
       <c r="B45">
         <v>86</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45">
         <f t="shared" si="0"/>
         <v>172</v>
       </c>
@@ -4943,7 +5509,7 @@
       <c r="B46">
         <v>90</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
@@ -4955,7 +5521,7 @@
       <c r="B47">
         <v>86</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47">
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
@@ -4967,7 +5533,7 @@
       <c r="B48">
         <v>73</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
@@ -4979,7 +5545,7 @@
       <c r="B49">
         <v>86</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49">
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
@@ -4991,7 +5557,7 @@
       <c r="B50">
         <v>87</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50">
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
@@ -5003,7 +5569,7 @@
       <c r="B51">
         <v>81</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
@@ -5015,7 +5581,7 @@
       <c r="B52">
         <v>82</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
@@ -5027,7 +5593,7 @@
       <c r="B53">
         <v>78</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
@@ -5039,7 +5605,7 @@
       <c r="B54">
         <v>72</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
@@ -5051,7 +5617,7 @@
       <c r="B55">
         <v>77</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
@@ -5063,7 +5629,7 @@
       <c r="B56">
         <v>80</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
@@ -5075,7 +5641,7 @@
       <c r="B57">
         <v>85</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
@@ -5087,7 +5653,7 @@
       <c r="B58">
         <v>60</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -5099,7 +5665,7 @@
       <c r="B59">
         <v>86</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59">
         <f t="shared" si="0"/>
         <v>172</v>
       </c>
@@ -5111,7 +5677,7 @@
       <c r="B60">
         <v>80</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
@@ -5123,7 +5689,7 @@
       <c r="B61">
         <v>64</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
@@ -5135,7 +5701,7 @@
       <c r="B62">
         <v>88</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
@@ -5147,7 +5713,7 @@
       <c r="B63">
         <v>88</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
@@ -5159,49 +5725,49 @@
       <c r="B64">
         <v>85</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65">
         <v>90</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>14</v>
       </c>
       <c r="B66">
         <v>86</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66">
         <f t="shared" ref="C66:C67" si="1">A66*B66</f>
         <v>1204</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67">
         <v>85</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="13">
+    <row r="68" spans="1:3">
+      <c r="A68">
         <f>SUM(A1:A67)</f>
         <v>175</v>
       </c>
@@ -5210,14 +5776,14 @@
         <v>14266</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="4:4">
       <c r="D70">
         <f>C68*4/17500</f>
-        <v>3.2608000000000001</v>
-      </c>
-      <c r="E70" s="13"/>
+        <v>3.2608</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/yourtour/documents/requirement/游徒APP的页面清单3.0.xlsx
+++ b/yourtour/documents/requirement/游徒APP的页面清单3.0.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\yt\yourtour\documents\requirement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16973" windowHeight="8015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16980" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="页面清单" sheetId="1" r:id="rId1"/>
     <sheet name="原型任务计划表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>Table 1</t>
   </si>
@@ -107,7 +112,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -116,7 +121,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">4  服务详细
 15  游玩详细
@@ -127,7 +132,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>16  达人行程模板</t>
     </r>
@@ -136,7 +141,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 17 百科详细
@@ -173,7 +178,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>20</t>
     </r>
@@ -192,7 +197,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>21</t>
     </r>
@@ -211,7 +216,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>22</t>
     </r>
@@ -231,7 +236,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>23</t>
     </r>
@@ -250,7 +255,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>24</t>
     </r>
@@ -269,7 +274,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>25</t>
     </r>
@@ -288,7 +293,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>26</t>
     </r>
@@ -307,7 +312,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>27</t>
     </r>
@@ -350,7 +355,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>29</t>
     </r>
@@ -373,7 +378,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>30</t>
     </r>
@@ -505,7 +510,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">43、私信聊天室页
 </t>
@@ -513,16 +518,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（44</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -532,16 +537,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>45</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -574,7 +579,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>51</t>
     </r>
@@ -593,7 +598,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>52</t>
     </r>
@@ -612,7 +617,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>53</t>
     </r>
@@ -630,7 +635,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 54</t>
@@ -783,18 +788,16 @@
   <si>
     <t>积分策略待确定</t>
   </si>
+  <si>
+    <t>每2-3天左右提交一次成果，以邮件方式为准（便于归档），中间可以采用微信沟通。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="41">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -806,57 +809,57 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -877,157 +880,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1035,25 +887,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="6"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1065,18 +905,30 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.349986266670736"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.349986266670736"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,194 +947,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1305,255 +971,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1593,9 +1017,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1614,58 +1035,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1735,6 +1121,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1760,9 +1154,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.192874607055536"/>
-          <c:y val="0.036697247706422"/>
-          <c:w val="0.779997671440214"/>
-          <c:h val="0.875963302752294"/>
+          <c:y val="3.6697247706422E-2"/>
+          <c:w val="0.77999767144021404"/>
+          <c:h val="0.87596330275229395"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1782,7 +1176,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>原型任务计划表!$C$2:$C$12</c:f>
+              <c:f>原型任务计划表!$C$3:$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1823,38 +1217,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>原型任务计划表!$H$2:$H$12</c:f>
+              <c:f>原型任务计划表!$H$3:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
+                <c:pt idx="7">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="General">
+                <c:pt idx="8">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="General">
+                <c:pt idx="9">
                   <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
@@ -1876,7 +1270,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>原型任务计划表!$C$2:$C$12</c:f>
+              <c:f>原型任务计划表!$C$3:$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1917,38 +1311,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>原型任务计划表!$I$2:$I$12</c:f>
+              <c:f>原型任务计划表!$I$3:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="General">
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="General">
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1956,7 +1350,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1966,11 +1359,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="628758176"/>
-        <c:axId val="628760896"/>
+        <c:axId val="194364720"/>
+        <c:axId val="194377360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="628758176"/>
+        <c:axId val="194364720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +1391,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2010,9 +1403,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628760896"/>
+        <c:crossAx val="194377360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2021,7 +1415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="628760896"/>
+        <c:axId val="194377360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2031,7 +1425,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2060,7 +1453,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2072,9 +1465,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628758176"/>
+        <c:crossAx val="194364720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2113,11 +1507,12 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2669,28 +2064,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>37465</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>388620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>6985</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>247967</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5574030" y="904875"/>
-        <a:ext cx="5455920" cy="3185795"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3912,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3920,601 +3315,354 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.4" style="12" customWidth="1"/>
-    <col min="3" max="3" width="25.8" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.8" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.8" style="12" customWidth="1"/>
-    <col min="6" max="256" width="9.1" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" style="12" customWidth="1"/>
+    <col min="6" max="256" width="9.09765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" spans="1:9">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" ht="52.5" customHeight="1" spans="1:9">
-      <c r="A3" s="15" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" ht="87.75" customHeight="1" spans="1:9">
-      <c r="A4" s="15" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" ht="94.5" customHeight="1" spans="1:9">
-      <c r="A5" s="15" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:9">
-      <c r="A6" s="15" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" ht="168" spans="1:9">
-      <c r="A7" s="15" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" customFormat="1" ht="32.65" spans="1:256">
-      <c r="A8" s="15" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
-      <c r="BH8" s="12"/>
-      <c r="BI8" s="12"/>
-      <c r="BJ8" s="12"/>
-      <c r="BK8" s="12"/>
-      <c r="BL8" s="12"/>
-      <c r="BM8" s="12"/>
-      <c r="BN8" s="12"/>
-      <c r="BO8" s="12"/>
-      <c r="BP8" s="12"/>
-      <c r="BQ8" s="12"/>
-      <c r="BR8" s="12"/>
-      <c r="BS8" s="12"/>
-      <c r="BT8" s="12"/>
-      <c r="BU8" s="12"/>
-      <c r="BV8" s="12"/>
-      <c r="BW8" s="12"/>
-      <c r="BX8" s="12"/>
-      <c r="BY8" s="12"/>
-      <c r="BZ8" s="12"/>
-      <c r="CA8" s="12"/>
-      <c r="CB8" s="12"/>
-      <c r="CC8" s="12"/>
-      <c r="CD8" s="12"/>
-      <c r="CE8" s="12"/>
-      <c r="CF8" s="12"/>
-      <c r="CG8" s="12"/>
-      <c r="CH8" s="12"/>
-      <c r="CI8" s="12"/>
-      <c r="CJ8" s="12"/>
-      <c r="CK8" s="12"/>
-      <c r="CL8" s="12"/>
-      <c r="CM8" s="12"/>
-      <c r="CN8" s="12"/>
-      <c r="CO8" s="12"/>
-      <c r="CP8" s="12"/>
-      <c r="CQ8" s="12"/>
-      <c r="CR8" s="12"/>
-      <c r="CS8" s="12"/>
-      <c r="CT8" s="12"/>
-      <c r="CU8" s="12"/>
-      <c r="CV8" s="12"/>
-      <c r="CW8" s="12"/>
-      <c r="CX8" s="12"/>
-      <c r="CY8" s="12"/>
-      <c r="CZ8" s="12"/>
-      <c r="DA8" s="12"/>
-      <c r="DB8" s="12"/>
-      <c r="DC8" s="12"/>
-      <c r="DD8" s="12"/>
-      <c r="DE8" s="12"/>
-      <c r="DF8" s="12"/>
-      <c r="DG8" s="12"/>
-      <c r="DH8" s="12"/>
-      <c r="DI8" s="12"/>
-      <c r="DJ8" s="12"/>
-      <c r="DK8" s="12"/>
-      <c r="DL8" s="12"/>
-      <c r="DM8" s="12"/>
-      <c r="DN8" s="12"/>
-      <c r="DO8" s="12"/>
-      <c r="DP8" s="12"/>
-      <c r="DQ8" s="12"/>
-      <c r="DR8" s="12"/>
-      <c r="DS8" s="12"/>
-      <c r="DT8" s="12"/>
-      <c r="DU8" s="12"/>
-      <c r="DV8" s="12"/>
-      <c r="DW8" s="12"/>
-      <c r="DX8" s="12"/>
-      <c r="DY8" s="12"/>
-      <c r="DZ8" s="12"/>
-      <c r="EA8" s="12"/>
-      <c r="EB8" s="12"/>
-      <c r="EC8" s="12"/>
-      <c r="ED8" s="12"/>
-      <c r="EE8" s="12"/>
-      <c r="EF8" s="12"/>
-      <c r="EG8" s="12"/>
-      <c r="EH8" s="12"/>
-      <c r="EI8" s="12"/>
-      <c r="EJ8" s="12"/>
-      <c r="EK8" s="12"/>
-      <c r="EL8" s="12"/>
-      <c r="EM8" s="12"/>
-      <c r="EN8" s="12"/>
-      <c r="EO8" s="12"/>
-      <c r="EP8" s="12"/>
-      <c r="EQ8" s="12"/>
-      <c r="ER8" s="12"/>
-      <c r="ES8" s="12"/>
-      <c r="ET8" s="12"/>
-      <c r="EU8" s="12"/>
-      <c r="EV8" s="12"/>
-      <c r="EW8" s="12"/>
-      <c r="EX8" s="12"/>
-      <c r="EY8" s="12"/>
-      <c r="EZ8" s="12"/>
-      <c r="FA8" s="12"/>
-      <c r="FB8" s="12"/>
-      <c r="FC8" s="12"/>
-      <c r="FD8" s="12"/>
-      <c r="FE8" s="12"/>
-      <c r="FF8" s="12"/>
-      <c r="FG8" s="12"/>
-      <c r="FH8" s="12"/>
-      <c r="FI8" s="12"/>
-      <c r="FJ8" s="12"/>
-      <c r="FK8" s="12"/>
-      <c r="FL8" s="12"/>
-      <c r="FM8" s="12"/>
-      <c r="FN8" s="12"/>
-      <c r="FO8" s="12"/>
-      <c r="FP8" s="12"/>
-      <c r="FQ8" s="12"/>
-      <c r="FR8" s="12"/>
-      <c r="FS8" s="12"/>
-      <c r="FT8" s="12"/>
-      <c r="FU8" s="12"/>
-      <c r="FV8" s="12"/>
-      <c r="FW8" s="12"/>
-      <c r="FX8" s="12"/>
-      <c r="FY8" s="12"/>
-      <c r="FZ8" s="12"/>
-      <c r="GA8" s="12"/>
-      <c r="GB8" s="12"/>
-      <c r="GC8" s="12"/>
-      <c r="GD8" s="12"/>
-      <c r="GE8" s="12"/>
-      <c r="GF8" s="12"/>
-      <c r="GG8" s="12"/>
-      <c r="GH8" s="12"/>
-      <c r="GI8" s="12"/>
-      <c r="GJ8" s="12"/>
-      <c r="GK8" s="12"/>
-      <c r="GL8" s="12"/>
-      <c r="GM8" s="12"/>
-      <c r="GN8" s="12"/>
-      <c r="GO8" s="12"/>
-      <c r="GP8" s="12"/>
-      <c r="GQ8" s="12"/>
-      <c r="GR8" s="12"/>
-      <c r="GS8" s="12"/>
-      <c r="GT8" s="12"/>
-      <c r="GU8" s="12"/>
-      <c r="GV8" s="12"/>
-      <c r="GW8" s="12"/>
-      <c r="GX8" s="12"/>
-      <c r="GY8" s="12"/>
-      <c r="GZ8" s="12"/>
-      <c r="HA8" s="12"/>
-      <c r="HB8" s="12"/>
-      <c r="HC8" s="12"/>
-      <c r="HD8" s="12"/>
-      <c r="HE8" s="12"/>
-      <c r="HF8" s="12"/>
-      <c r="HG8" s="12"/>
-      <c r="HH8" s="12"/>
-      <c r="HI8" s="12"/>
-      <c r="HJ8" s="12"/>
-      <c r="HK8" s="12"/>
-      <c r="HL8" s="12"/>
-      <c r="HM8" s="12"/>
-      <c r="HN8" s="12"/>
-      <c r="HO8" s="12"/>
-      <c r="HP8" s="12"/>
-      <c r="HQ8" s="12"/>
-      <c r="HR8" s="12"/>
-      <c r="HS8" s="12"/>
-      <c r="HT8" s="12"/>
-      <c r="HU8" s="12"/>
-      <c r="HV8" s="12"/>
-      <c r="HW8" s="12"/>
-      <c r="HX8" s="12"/>
-      <c r="HY8" s="12"/>
-      <c r="HZ8" s="12"/>
-      <c r="IA8" s="12"/>
-      <c r="IB8" s="12"/>
-      <c r="IC8" s="12"/>
-      <c r="ID8" s="12"/>
-      <c r="IE8" s="12"/>
-      <c r="IF8" s="12"/>
-      <c r="IG8" s="12"/>
-      <c r="IH8" s="12"/>
-      <c r="II8" s="12"/>
-      <c r="IJ8" s="12"/>
-      <c r="IK8" s="12"/>
-      <c r="IL8" s="12"/>
-      <c r="IM8" s="12"/>
-      <c r="IN8" s="12"/>
-      <c r="IO8" s="12"/>
-      <c r="IP8" s="12"/>
-      <c r="IQ8" s="12"/>
-      <c r="IR8" s="12"/>
-      <c r="IS8" s="12"/>
-      <c r="IT8" s="12"/>
-      <c r="IU8" s="12"/>
-      <c r="IV8" s="12"/>
-    </row>
-    <row r="9" ht="64.35" customHeight="1" spans="1:9">
-      <c r="A9" s="15" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -4522,157 +3670,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.05833333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.8" style="2"/>
-    <col min="3" max="3" width="6.08333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.2083333333333" customWidth="1"/>
-    <col min="5" max="6" width="9.29166666666667" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.29166666666667" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.0166666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.69166666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.8" style="5"/>
+    <col min="1" max="1" width="5.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="2"/>
+    <col min="3" max="3" width="6.09765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" customWidth="1"/>
+    <col min="5" max="6" width="9.296875" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.296875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="40.65" spans="1:11">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="54.65" spans="1:10">
-      <c r="A2" s="2">
+    <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <f>E2/F2</f>
-        <v>3</v>
-      </c>
-      <c r="H2" s="4">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="32.65" spans="1:10">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G12" si="0">E3/F3</f>
-        <v>1.5</v>
+        <f>E3/F3</f>
+        <v>3</v>
       </c>
       <c r="H3" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" ht="54.65" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="G4:G13" si="0">E4/F4</f>
+        <v>1.5</v>
       </c>
       <c r="H4" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -4681,187 +3809,187 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="65.35" spans="1:10">
+    <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="54.65" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="54.65" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="H7" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="5">
-        <v>25</v>
-      </c>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" ht="54.65" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="4">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
         <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H8" s="4">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
       </c>
       <c r="J8" s="5">
         <v>25</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" ht="14" spans="1:10">
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H9" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" ht="54.65" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="7">
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
@@ -4883,51 +4011,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="98" spans="1:10">
+    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="27.35" spans="1:11">
+    <row r="12" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -4939,30 +4067,65 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="H12" s="4">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>4</v>
       </c>
@@ -4974,7 +4137,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4986,7 +4149,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4998,7 +4161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5010,7 +4173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5022,7 +4185,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5034,7 +4197,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5046,7 +4209,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -5058,7 +4221,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -5070,7 +4233,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5082,7 +4245,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5094,7 +4257,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.5</v>
       </c>
@@ -5106,7 +4269,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5118,7 +4281,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5130,7 +4293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -5142,7 +4305,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -5154,7 +4317,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5166,7 +4329,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5178,7 +4341,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5190,7 +4353,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5202,7 +4365,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5214,7 +4377,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5226,7 +4389,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -5238,7 +4401,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.5</v>
       </c>
@@ -5250,7 +4413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5262,7 +4425,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5274,7 +4437,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5286,7 +4449,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -5298,7 +4461,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2.5</v>
       </c>
@@ -5310,7 +4473,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -5322,7 +4485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -5334,7 +4497,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -5346,7 +4509,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.5</v>
       </c>
@@ -5358,7 +4521,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.5</v>
       </c>
@@ -5370,7 +4533,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -5382,7 +4545,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -5394,7 +4557,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -5406,7 +4569,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -5418,7 +4581,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.5</v>
       </c>
@@ -5430,7 +4593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -5442,7 +4605,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -5454,7 +4617,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -5466,7 +4629,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.5</v>
       </c>
@@ -5478,7 +4641,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -5490,7 +4653,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -5502,7 +4665,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -5514,7 +4677,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -5526,7 +4689,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -5538,7 +4701,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -5550,7 +4713,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -5562,7 +4725,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -5574,7 +4737,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -5586,7 +4749,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -5598,7 +4761,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -5610,7 +4773,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -5622,7 +4785,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -5634,7 +4797,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -5646,7 +4809,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.5</v>
       </c>
@@ -5658,7 +4821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -5670,7 +4833,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -5682,7 +4845,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -5694,7 +4857,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -5706,7 +4869,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -5718,7 +4881,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -5730,7 +4893,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -5742,7 +4905,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>14</v>
       </c>
@@ -5754,7 +4917,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -5766,7 +4929,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <f>SUM(A1:A67)</f>
         <v>175</v>
@@ -5776,14 +4939,14 @@
         <v>14266</v>
       </c>
     </row>
-    <row r="70" spans="4:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D70">
         <f>C68*4/17500</f>
-        <v>3.2608</v>
+        <v>3.2608000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/yourtour/documents/requirement/游徒APP的页面清单3.0.xlsx
+++ b/yourtour/documents/requirement/游徒APP的页面清单3.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Table 1</t>
   </si>
@@ -723,13 +723,6 @@
     <t>46~50</t>
   </si>
   <si>
-    <t>服务首页（46）
-预定服务列表页（47）
-预定服务详情页（48）
-服务订购页面（49）
-服务支付页面（50）</t>
-  </si>
-  <si>
     <t>20~23、26</t>
   </si>
   <si>
@@ -741,12 +734,6 @@
   </si>
   <si>
     <t>24、25、27、28</t>
-  </si>
-  <si>
-    <t>写随记页(24)
-行程账单页(25)
-当前行程聊天页(27)
-行程评价页（28）</t>
   </si>
   <si>
     <t>评价的指标待确定</t>
@@ -792,12 +779,230 @@
     <t>每2-3天左右提交一次成果，以邮件方式为准（便于归档），中间可以采用微信沟通。</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>页面代码开发时间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写随记页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(24)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行程账单页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(25)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前行程聊天页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(27)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行程评价页（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务首页（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+预定服务列表页（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+预定服务详情页（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+服务订购页面（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+服务支付方式选择页面（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -927,6 +1132,45 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -977,7 +1221,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1046,6 +1290,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,11 +1606,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="194364720"/>
-        <c:axId val="194377360"/>
+        <c:axId val="195976592"/>
+        <c:axId val="196055104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194364720"/>
+        <c:axId val="195976592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1653,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194377360"/>
+        <c:crossAx val="196055104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1415,7 +1662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194377360"/>
+        <c:axId val="196055104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -1468,7 +1715,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194364720"/>
+        <c:crossAx val="195976592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2067,13 +2314,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>37465</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>388620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>6985</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>247967</xdr:rowOff>
@@ -3671,13 +3918,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3691,11 +3938,12 @@
     <col min="8" max="8" width="10" style="4" customWidth="1"/>
     <col min="9" max="9" width="5.69921875" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.796875" style="5"/>
+    <col min="11" max="11" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -3707,8 +3955,9 @@
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -3739,11 +3988,14 @@
       <c r="J2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3775,8 +4027,11 @@
       <c r="J3" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K3" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3808,8 +4063,11 @@
       <c r="J4" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K4" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3841,8 +4099,11 @@
       <c r="J5" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3874,8 +4135,11 @@
       <c r="J6" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3886,7 +4150,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
@@ -3907,8 +4171,11 @@
       <c r="J7" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3916,10 +4183,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -3940,9 +4207,12 @@
       <c r="J8" s="5">
         <v>25</v>
       </c>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="K8" s="5">
+        <v>15</v>
+      </c>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3950,10 +4220,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -3974,11 +4244,11 @@
       <c r="J9" s="5">
         <v>25</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3989,7 +4259,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
@@ -4011,7 +4281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4019,10 +4289,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
@@ -4044,7 +4314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4052,10 +4322,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -4077,7 +4347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4085,10 +4355,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -4100,13 +4370,13 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>63</v>
+      <c r="L13" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
